--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>title</t>
   </si>
@@ -39,9 +39,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>كوبون نمشي</t>
-  </si>
-  <si>
     <t>خصم على جميع المنتجات</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>صالح للاستخدام عدة مرات</t>
+  </si>
+  <si>
+    <t>نمشي</t>
+  </si>
+  <si>
+    <t>نوون</t>
+  </si>
+  <si>
+    <t>scaios2026</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,33 +456,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="304"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="168">
   <si>
     <t>title</t>
   </si>
@@ -39,31 +39,487 @@
     <t>note</t>
   </si>
   <si>
-    <t>خصم على جميع المنتجات</t>
-  </si>
-  <si>
-    <t>scaios2025</t>
-  </si>
-  <si>
     <t>https://f.top4top.io/p_3389y71vl1.png</t>
   </si>
   <si>
-    <t>https://www.discountcoupon.online</t>
-  </si>
-  <si>
     <t>السعودية</t>
   </si>
   <si>
-    <t>صالح للاستخدام عدة مرات</t>
-  </si>
-  <si>
     <t>نمشي</t>
   </si>
   <si>
-    <t>نوون</t>
-  </si>
-  <si>
-    <t>scaios2026</t>
+    <t>نيم شيب</t>
+  </si>
+  <si>
+    <t>خصم 56% على نطاق .كوم</t>
+  </si>
+  <si>
+    <t>NEWCOM649</t>
+  </si>
+  <si>
+    <t>جميع الدول</t>
+  </si>
+  <si>
+    <t>يستخدم مرة واحدة فقط لكل حساب</t>
+  </si>
+  <si>
+    <t>https://www.anrdoezrs.net/click-101416703-15896257</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_33913ycoo4.png</t>
+  </si>
+  <si>
+    <t>كاش باك – خصم 40% على منتجات هيبسي</t>
+  </si>
+  <si>
+    <t>NM389</t>
+  </si>
+  <si>
+    <t>https://www.namshi.com</t>
+  </si>
+  <si>
+    <t>السعودية - قطر - البحرين - الإمارات - عمان - الكويت</t>
+  </si>
+  <si>
+    <t>الحد الأقصى للخصم: 200 درهم إماراتي - 200 ريال سعودي</t>
+  </si>
+  <si>
+    <t>دوراتك</t>
+  </si>
+  <si>
+    <t>خصم 15% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>KZARVV</t>
+  </si>
+  <si>
+    <t>https://duratak.com/</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام عدة مرات</t>
+  </si>
+  <si>
+    <t>ال جي</t>
+  </si>
+  <si>
+    <t>خصم 10% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>SJAL38</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/</t>
+  </si>
+  <si>
+    <t>لا توجد ملاحظات</t>
+  </si>
+  <si>
+    <t>ستايلي</t>
+  </si>
+  <si>
+    <t>خصم 12% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>SFF62</t>
+  </si>
+  <si>
+    <t>https://stylishop.com/</t>
+  </si>
+  <si>
+    <t>البحرين - الكويت - السعودية - الإمارات</t>
+  </si>
+  <si>
+    <t>ايس</t>
+  </si>
+  <si>
+    <t>CE30</t>
+  </si>
+  <si>
+    <t>https://www.aceuae.com/</t>
+  </si>
+  <si>
+    <t>قطر - الإمارات</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام مرتين</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_339167dq52.png</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_33910xoz63.png</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_33896ltek2.png</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3391r361b1.png</t>
+  </si>
+  <si>
+    <t>PSA157</t>
+  </si>
+  <si>
+    <t>ناو ناو</t>
+  </si>
+  <si>
+    <t>https://www.noonnownow.com/</t>
+  </si>
+  <si>
+    <t>السعودية - الإمارات</t>
+  </si>
+  <si>
+    <t>خصم 5% - 30% على جميع الطلبات</t>
+  </si>
+  <si>
+    <t>خصم 20% - 30% للعميل الجديد و 5% للقديم</t>
+  </si>
+  <si>
+    <t>https://d.top4top.io/p_3391qmq1y1.png</t>
+  </si>
+  <si>
+    <t>ديزل</t>
+  </si>
+  <si>
+    <t>ADM20</t>
+  </si>
+  <si>
+    <t>https://ae.diesel.com/ae_en</t>
+  </si>
+  <si>
+    <t>السعودية - الإمارات - الكويت</t>
+  </si>
+  <si>
+    <t>الكوبون غير قابل للتطبيق على المنتجات التي عليها تخفيض</t>
+  </si>
+  <si>
+    <t>إيديت أحمد صديقي</t>
+  </si>
+  <si>
+    <t>BE46</t>
+  </si>
+  <si>
+    <t>https://www.byedit.com/</t>
+  </si>
+  <si>
+    <t>الإمارات</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل مرة واحدة فقط لكل مستخدم</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3391rwsj21.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_339189o732.png</t>
+  </si>
+  <si>
+    <t>جلاسيس ليت</t>
+  </si>
+  <si>
+    <t>خصم 8$ من سعر المنتج</t>
+  </si>
+  <si>
+    <t>lC8Kuc62Vh</t>
+  </si>
+  <si>
+    <t>https://www.glasseslit.com/</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل مع المنتجات فوق 10 دولار فقط</t>
+  </si>
+  <si>
+    <t>هيد ماي نايم</t>
+  </si>
+  <si>
+    <t>ثلاث أشهر مجانية لخدمة VPN</t>
+  </si>
+  <si>
+    <t>HMNN9WM</t>
+  </si>
+  <si>
+    <t>https://hide.mn/</t>
+  </si>
+  <si>
+    <t>يمنحك الكوبون ثلاثة أشهر إضافية من VPN كهدية عند شراء باقة لمدة عام أو أكثر.</t>
+  </si>
+  <si>
+    <t>اي جي بي</t>
+  </si>
+  <si>
+    <t>ADM28</t>
+  </si>
+  <si>
+    <t>https://ae.igp.com/</t>
+  </si>
+  <si>
+    <t>لينك ستور</t>
+  </si>
+  <si>
+    <t>خصم 10% على بعض المنتجات</t>
+  </si>
+  <si>
+    <t>LS4</t>
+  </si>
+  <si>
+    <t>https://linkstore.ae/</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل على منتجات محددة فقط</t>
+  </si>
+  <si>
+    <t>ماج باريس</t>
+  </si>
+  <si>
+    <t>JE46</t>
+  </si>
+  <si>
+    <t>https://maje.sa/</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام مرتين فقط</t>
+  </si>
+  <si>
+    <t>بازل موفيز</t>
+  </si>
+  <si>
+    <t>خصم 20% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>F9yhe</t>
+  </si>
+  <si>
+    <t>https://puzzle-movies.com/</t>
+  </si>
+  <si>
+    <t>https://e.top4top.io/p_3391be0pf1.png</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_33910v0292.png</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_33916x3lr3.png</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3391q8hu24.png</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3391peoh55.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3391wufk16.png</t>
+  </si>
+  <si>
+    <t>ساندرو</t>
+  </si>
+  <si>
+    <t>AM10</t>
+  </si>
+  <si>
+    <t>https://www.sandro.ae/</t>
+  </si>
+  <si>
+    <t>يجب عليك التسجيل لتفعيل الكوبون</t>
+  </si>
+  <si>
+    <t>تيد بيكر</t>
+  </si>
+  <si>
+    <t>TW3</t>
+  </si>
+  <si>
+    <t>https://tedbaker.sa/</t>
+  </si>
+  <si>
+    <t>تويو</t>
+  </si>
+  <si>
+    <t>خصم 5 ريال سعودي</t>
+  </si>
+  <si>
+    <t>BS27</t>
+  </si>
+  <si>
+    <t>https://toyou.io/</t>
+  </si>
+  <si>
+    <t>الكوبون يطبق على سلة مشتريات لا تقل عن 35 ريال سعودي.</t>
+  </si>
+  <si>
+    <t>تريدلنغ</t>
+  </si>
+  <si>
+    <t>خصم 10% على أول طلب</t>
+  </si>
+  <si>
+    <t>AD94</t>
+  </si>
+  <si>
+    <t>https://www.tradeling.com</t>
+  </si>
+  <si>
+    <t>الحد الأدنى لقيمة الطلب للاستفادة من الخصم هو 100 درهم إماراتي، والحد الأقصى للخصم 20 درهم إماراتي. صالح للمستخدمين الجدد فقط.</t>
+  </si>
+  <si>
+    <t>فوغا كلوسيت</t>
+  </si>
+  <si>
+    <t>خصم 20% - 80% على بعض المنتجات</t>
+  </si>
+  <si>
+    <t>BQ7</t>
+  </si>
+  <si>
+    <t>https://vogacloset.com/</t>
+  </si>
+  <si>
+    <t>عمان - الكويت - لبنان - البحرين - ليبيا - قطر - المغرب - الأردن -الإمارات - العراق - السعودية</t>
+  </si>
+  <si>
+    <t>خصم الكوبون يختلف من منتج لأخر</t>
+  </si>
+  <si>
+    <t>واتسونز</t>
+  </si>
+  <si>
+    <t>TW2</t>
+  </si>
+  <si>
+    <t>https://www.watsons.ae/</t>
+  </si>
+  <si>
+    <t>يانجو درايف</t>
+  </si>
+  <si>
+    <t>خصم 3% على الطلبات</t>
+  </si>
+  <si>
+    <t>AD26</t>
+  </si>
+  <si>
+    <t>https://drive.yango.com/</t>
+  </si>
+  <si>
+    <t>نون</t>
+  </si>
+  <si>
+    <t>كاش باك يصل حتى 10% على جميع الطلبات</t>
+  </si>
+  <si>
+    <t>1CM1129</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-ar/</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_33923l64d1.png</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3392qpwst2.png</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3392z69ca3.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3392j1gw04.png</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3392yyyzq5.png</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_33926kbin6.png</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3392z0f2z7.png</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_339275buq8.png</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_33920pvoe9.png</t>
+  </si>
+  <si>
+    <t>سوروزيه</t>
+  </si>
+  <si>
+    <t>خصم 5% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>XBIVMC</t>
+  </si>
+  <si>
+    <t>https://sorose.sa/</t>
+  </si>
+  <si>
+    <t>Neamcheap</t>
+  </si>
+  <si>
+    <t>Namshi</t>
+  </si>
+  <si>
+    <t>Duratak</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Styli</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>Now Now</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>EDIT By Ahmed Seddiqi</t>
+  </si>
+  <si>
+    <t>Glasseslit</t>
+  </si>
+  <si>
+    <t>Hidemyname VPN</t>
+  </si>
+  <si>
+    <t>IGP</t>
+  </si>
+  <si>
+    <t>Link Store</t>
+  </si>
+  <si>
+    <t>Maje Paris</t>
+  </si>
+  <si>
+    <t>Puzzle Movies</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t>Ted Baker</t>
+  </si>
+  <si>
+    <t>ToYou</t>
+  </si>
+  <si>
+    <t>Tradeling</t>
+  </si>
+  <si>
+    <t>VogaCloset</t>
+  </si>
+  <si>
+    <t>Watsons</t>
+  </si>
+  <si>
+    <t>Yango Drive</t>
+  </si>
+  <si>
+    <t>Noon</t>
+  </si>
+  <si>
+    <t>Sorose</t>
   </si>
 </sst>
 </file>
@@ -79,23 +535,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,18 +571,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,99 +908,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="71.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="103.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
   <si>
     <t>title</t>
   </si>
@@ -520,6 +520,261 @@
   </si>
   <si>
     <t>Sorose</t>
+  </si>
+  <si>
+    <t>AMD-019</t>
+  </si>
+  <si>
+    <t>https://blendshome.com/</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3397d7x5s4.png</t>
+  </si>
+  <si>
+    <t>خصم 30% + كوبونات بقيمة 100$</t>
+  </si>
+  <si>
+    <t>acv789905</t>
+  </si>
+  <si>
+    <t>https://temu.to/k/ez1g79jx81e</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3397x2wvp1.png</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل بعد تحميل التطبيق ويجب استخدامه خلال ساعة من التسجيل</t>
+  </si>
+  <si>
+    <t>خصم 75% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>https://www.coohom.com/</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_3397o6y932.png</t>
+  </si>
+  <si>
+    <t>AD57</t>
+  </si>
+  <si>
+    <t>https://baytonia.com/</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_33975vdyh2.png</t>
+  </si>
+  <si>
+    <t>خصم 10$ على جميع الخطط</t>
+  </si>
+  <si>
+    <t>ADMITAD7</t>
+  </si>
+  <si>
+    <t>https://www.globalyo.com/</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3397m4vd26.png</t>
+  </si>
+  <si>
+    <t>خصم 1% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>ad23</t>
+  </si>
+  <si>
+    <t>https://www.onecard.com/sa-en/</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_339730dym8.png</t>
+  </si>
+  <si>
+    <t>لا يشمل الكوبون بطاقة HungerStation والبطاقات المخفضة بالفعل</t>
+  </si>
+  <si>
+    <t>خصم يصل 70$ على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>adm_e5ASA</t>
+  </si>
+  <si>
+    <t>https://puzzle-english.com/</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_3397lijvt9.png</t>
+  </si>
+  <si>
+    <t>خصم يصل 20% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>ctw145</t>
+  </si>
+  <si>
+    <t>https://www.sivvi.com/saudi-ar/</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_33977axkq10.png</t>
+  </si>
+  <si>
+    <t>السعودية- الإمارات</t>
+  </si>
+  <si>
+    <t>خصم 20% للعميل الجديد و 5% للعميل السابق</t>
+  </si>
+  <si>
+    <t>خصم 30% لجميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA157</t>
+  </si>
+  <si>
+    <t>https://tabibgroup.net/</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_33970eb773.png</t>
+  </si>
+  <si>
+    <t>LA266</t>
+  </si>
+  <si>
+    <t>https://www.nesbh.com/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_339701dr57.png</t>
+  </si>
+  <si>
+    <t>ADM40</t>
+  </si>
+  <si>
+    <t>https://storeus.com/</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_3397ixgus1.png</t>
+  </si>
+  <si>
+    <t>الحد الأقصى للخصم هو 40 درهم إماراتي,لا ينطبق الكوبون على المنتجات المخفضة</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>https://swissarabian.com/</t>
+  </si>
+  <si>
+    <t>https://d.top4top.io/p_3397flakg4.png</t>
+  </si>
+  <si>
+    <t>السعودية - قطر - الإمارات - عمان - الكويت</t>
+  </si>
+  <si>
+    <t>خصم 10% على جميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA299</t>
+  </si>
+  <si>
+    <t>https://fasrly.com/ar/</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3397ybq0i5.png</t>
+  </si>
+  <si>
+    <t>عمان - الكويت - البحرين - قطر - الإمارات - السعودية</t>
+  </si>
+  <si>
+    <t>LA0470</t>
+  </si>
+  <si>
+    <t>https://bynh.sa/</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3397kup283.png</t>
+  </si>
+  <si>
+    <t>كوبون بلندز</t>
+  </si>
+  <si>
+    <t>كوبون تيمو</t>
+  </si>
+  <si>
+    <t>كوبون كوهوم</t>
+  </si>
+  <si>
+    <t>كوبون بيتونيا</t>
+  </si>
+  <si>
+    <t>كوبون جلوبال يو</t>
+  </si>
+  <si>
+    <t>كوبون ون كارد</t>
+  </si>
+  <si>
+    <t>كوبون بازل إنجلش</t>
+  </si>
+  <si>
+    <t>كوبون سيفي</t>
+  </si>
+  <si>
+    <t>كوبون مجموعة طبيب</t>
+  </si>
+  <si>
+    <t>كوبون نسبة</t>
+  </si>
+  <si>
+    <t>كوبون ستور اص</t>
+  </si>
+  <si>
+    <t>كوبون سويس اربيان</t>
+  </si>
+  <si>
+    <t>كوبون فسرلي</t>
+  </si>
+  <si>
+    <t>كوبون بينه</t>
+  </si>
+  <si>
+    <t>Baytonia Coupon</t>
+  </si>
+  <si>
+    <t>Coohom Coupon</t>
+  </si>
+  <si>
+    <t>Temu Coupon</t>
+  </si>
+  <si>
+    <t>Blends Coupon</t>
+  </si>
+  <si>
+    <t>Global YO Coupon</t>
+  </si>
+  <si>
+    <t>OneCard Coupon</t>
+  </si>
+  <si>
+    <t>Puzzle English Coupon</t>
+  </si>
+  <si>
+    <t>Sivvi Coupon</t>
+  </si>
+  <si>
+    <t>Tabib Group Coupon</t>
+  </si>
+  <si>
+    <t>Nesbh Coupon</t>
+  </si>
+  <si>
+    <t>Storeus Coupon</t>
+  </si>
+  <si>
+    <t>Swiss Arabian Coupon</t>
+  </si>
+  <si>
+    <t>Fasrly Coupon</t>
+  </si>
+  <si>
+    <t>Bynh Coupon</t>
   </si>
 </sst>
 </file>
@@ -563,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -586,11 +841,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,6 +873,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1501,586 +1772,1392 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="67" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="68" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="69" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="70" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="71" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="72" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="73" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="74" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="75" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="76" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="77" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="78" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="79" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="80" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="81" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="82" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B82" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C82" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D82" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E82" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G82" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -693,88 +693,88 @@
     <t>https://h.top4top.io/p_3397kup283.png</t>
   </si>
   <si>
-    <t>كوبون بلندز</t>
-  </si>
-  <si>
-    <t>كوبون تيمو</t>
-  </si>
-  <si>
-    <t>كوبون كوهوم</t>
-  </si>
-  <si>
-    <t>كوبون بيتونيا</t>
-  </si>
-  <si>
-    <t>كوبون جلوبال يو</t>
-  </si>
-  <si>
-    <t>كوبون ون كارد</t>
-  </si>
-  <si>
-    <t>كوبون بازل إنجلش</t>
-  </si>
-  <si>
     <t>كوبون سيفي</t>
   </si>
   <si>
-    <t>كوبون مجموعة طبيب</t>
-  </si>
-  <si>
-    <t>كوبون نسبة</t>
-  </si>
-  <si>
-    <t>كوبون ستور اص</t>
-  </si>
-  <si>
-    <t>كوبون سويس اربيان</t>
-  </si>
-  <si>
-    <t>كوبون فسرلي</t>
-  </si>
-  <si>
-    <t>كوبون بينه</t>
-  </si>
-  <si>
-    <t>Baytonia Coupon</t>
-  </si>
-  <si>
-    <t>Coohom Coupon</t>
-  </si>
-  <si>
-    <t>Temu Coupon</t>
-  </si>
-  <si>
-    <t>Blends Coupon</t>
-  </si>
-  <si>
-    <t>Global YO Coupon</t>
-  </si>
-  <si>
-    <t>OneCard Coupon</t>
-  </si>
-  <si>
-    <t>Puzzle English Coupon</t>
-  </si>
-  <si>
-    <t>Sivvi Coupon</t>
-  </si>
-  <si>
-    <t>Tabib Group Coupon</t>
-  </si>
-  <si>
-    <t>Nesbh Coupon</t>
-  </si>
-  <si>
-    <t>Storeus Coupon</t>
-  </si>
-  <si>
-    <t>Swiss Arabian Coupon</t>
-  </si>
-  <si>
-    <t>Fasrly Coupon</t>
-  </si>
-  <si>
-    <t>Bynh Coupon</t>
+    <t>بلندز</t>
+  </si>
+  <si>
+    <t>تيمو</t>
+  </si>
+  <si>
+    <t>كوهوم</t>
+  </si>
+  <si>
+    <t>بيتونيا</t>
+  </si>
+  <si>
+    <t>جلوبال يو</t>
+  </si>
+  <si>
+    <t>ون كارد</t>
+  </si>
+  <si>
+    <t>بازل إنجلش</t>
+  </si>
+  <si>
+    <t>مجموعة طبيب</t>
+  </si>
+  <si>
+    <t>نسبة</t>
+  </si>
+  <si>
+    <t>ستور اص</t>
+  </si>
+  <si>
+    <t>سويس اربيان</t>
+  </si>
+  <si>
+    <t>فسرلي</t>
+  </si>
+  <si>
+    <t>بينه</t>
+  </si>
+  <si>
+    <t>Blends</t>
+  </si>
+  <si>
+    <t>Temu</t>
+  </si>
+  <si>
+    <t>Coohom</t>
+  </si>
+  <si>
+    <t>Baytonia</t>
+  </si>
+  <si>
+    <t>Global YO</t>
+  </si>
+  <si>
+    <t>OneCard</t>
+  </si>
+  <si>
+    <t>Puzzle English</t>
+  </si>
+  <si>
+    <t>Sivvi</t>
+  </si>
+  <si>
+    <t>Tabib Group</t>
+  </si>
+  <si>
+    <t>Nesbh</t>
+  </si>
+  <si>
+    <t>Storeus</t>
+  </si>
+  <si>
+    <t>Swiss Arabian</t>
+  </si>
+  <si>
+    <t>Fasrly</t>
+  </si>
+  <si>
+    <t>Bynh</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="26" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="27" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>171</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>176</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="29" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>141</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="30" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>183</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="31" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>187</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="32" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>192</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="33" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>196</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="83" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>28</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="84" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>171</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="85" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>176</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="86" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>141</v>

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="268">
   <si>
     <t>title</t>
   </si>
@@ -775,6 +775,51 @@
   </si>
   <si>
     <t>Bynh</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>https://dkny.com.kw/</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_339868wzq2.png</t>
+  </si>
+  <si>
+    <t>AEB09</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/ae-en/offer/</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_3398epsnm3.png</t>
+  </si>
+  <si>
+    <t>ADM84</t>
+  </si>
+  <si>
+    <t>https://www.reebok.ae/</t>
+  </si>
+  <si>
+    <t>https://e.top4top.io/p_3398jj9fc1.png</t>
+  </si>
+  <si>
+    <t>دكني</t>
+  </si>
+  <si>
+    <t>هواوي</t>
+  </si>
+  <si>
+    <t>ريبوك</t>
+  </si>
+  <si>
+    <t>DKNY</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Reebok</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2095,31 +2140,73 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
@@ -3140,24 +3227,102 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="98" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="A98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -312,9 +312,6 @@
     <t>ساندرو</t>
   </si>
   <si>
-    <t>AM10</t>
-  </si>
-  <si>
     <t>https://www.sandro.ae/</t>
   </si>
   <si>
@@ -820,6 +817,9 @@
   </si>
   <si>
     <t>Reebok</t>
+  </si>
+  <si>
+    <t>AM19</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1618,36 +1618,36 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>49</v>
@@ -1658,88 +1658,88 @@
     </row>
     <row r="19" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>49</v>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>61</v>
@@ -1773,19 +1773,19 @@
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>49</v>
@@ -1796,19 +1796,19 @@
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="26" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
@@ -1842,42 +1842,42 @@
     </row>
     <row r="27" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1888,19 +1888,19 @@
     </row>
     <row r="29" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -1911,19 +1911,19 @@
     </row>
     <row r="30" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1934,42 +1934,42 @@
     </row>
     <row r="31" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1980,42 +1980,42 @@
     </row>
     <row r="33" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -2026,19 +2026,19 @@
     </row>
     <row r="35" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -2049,45 +2049,45 @@
     </row>
     <row r="36" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>31</v>
@@ -2095,22 +2095,22 @@
     </row>
     <row r="38" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>31</v>
@@ -2118,19 +2118,19 @@
     </row>
     <row r="39" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
@@ -2141,19 +2141,19 @@
     </row>
     <row r="40" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>56</v>
@@ -2164,19 +2164,19 @@
     </row>
     <row r="41" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>61</v>
@@ -2187,19 +2187,19 @@
     </row>
     <row r="42" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>61</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="59" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="60" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="61" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>23</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="62" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>28</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="63" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>33</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="64" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>28</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="65" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>50</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="66" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>23</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="67" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>23</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="68" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="69" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>71</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="70" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>23</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="71" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>79</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="72" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>28</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="73" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>88</v>
@@ -2699,42 +2699,42 @@
     </row>
     <row r="74" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>49</v>
@@ -2745,88 +2745,88 @@
     </row>
     <row r="76" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>49</v>
@@ -2837,19 +2837,19 @@
     </row>
     <row r="80" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>61</v>
@@ -2860,19 +2860,19 @@
     </row>
     <row r="81" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>49</v>
@@ -2883,19 +2883,19 @@
     </row>
     <row r="82" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="E82" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>8</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="83" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>20</v>
@@ -2929,42 +2929,42 @@
     </row>
     <row r="84" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>13</v>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="86" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>8</v>
@@ -2998,19 +2998,19 @@
     </row>
     <row r="87" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>13</v>
@@ -3021,42 +3021,42 @@
     </row>
     <row r="88" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>13</v>
@@ -3067,42 +3067,42 @@
     </row>
     <row r="90" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>8</v>
@@ -3113,19 +3113,19 @@
     </row>
     <row r="92" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>8</v>
@@ -3136,45 +3136,45 @@
     </row>
     <row r="93" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>31</v>
@@ -3182,22 +3182,22 @@
     </row>
     <row r="95" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>31</v>
@@ -3205,19 +3205,19 @@
     </row>
     <row r="96" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>8</v>
@@ -3228,19 +3228,19 @@
     </row>
     <row r="97" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>56</v>
@@ -3251,19 +3251,19 @@
     </row>
     <row r="98" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>61</v>
@@ -3274,19 +3274,19 @@
     </row>
     <row r="99" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>61</v>

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="402">
   <si>
     <t>title</t>
   </si>
@@ -820,6 +821,408 @@
   </si>
   <si>
     <t>AM19</t>
+  </si>
+  <si>
+    <t>﻿NU12</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/egypt-ar/</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>للمستخدم الجديد 10% حتى 50 جنيه مصري وللقديم 5% حتى 25 جنيه مصري</t>
+  </si>
+  <si>
+    <t>K78</t>
+  </si>
+  <si>
+    <t>https://www.kiabi.ae/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_34054au2i1.png</t>
+  </si>
+  <si>
+    <t>كيابي</t>
+  </si>
+  <si>
+    <t>Kiabi</t>
+  </si>
+  <si>
+    <t>خصم 15% على جميع البرامج</t>
+  </si>
+  <si>
+    <t>SOFT15MAY</t>
+  </si>
+  <si>
+    <t>https://www.anrdoezrs.net/click-101416703-17077622</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3416e3gej9.png</t>
+  </si>
+  <si>
+    <t>الحد الأقصى لقيمة السلة 150 يورو , حد الاستخدام للكوبون مرتين فقط</t>
+  </si>
+  <si>
+    <t>خصم 7% على بطاقات الهدايا</t>
+  </si>
+  <si>
+    <t>PRE7MAY</t>
+  </si>
+  <si>
+    <t>https://www.kqzyfj.com/click-101416703-17077612</t>
+  </si>
+  <si>
+    <t>خصم 9% على الألعاب والمحتوى القابل للتنزيل</t>
+  </si>
+  <si>
+    <t>GAME9MAY</t>
+  </si>
+  <si>
+    <t>https://www.kqzyfj.com/click-101416703-17077617</t>
+  </si>
+  <si>
+    <t>خصم 15% على جميع البروكسيات</t>
+  </si>
+  <si>
+    <t>SL-Z9PVZ-7VGXYBK</t>
+  </si>
+  <si>
+    <t>https://proxy-sale.com/</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3416xab7f6.png</t>
+  </si>
+  <si>
+    <t>ADM17</t>
+  </si>
+  <si>
+    <t>https://sitpack.com</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_3416hr5jz9.png</t>
+  </si>
+  <si>
+    <t>ADMWBGZ3DSL</t>
+  </si>
+  <si>
+    <t>https://bit.ly/4iIKhRm</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3416x8i611.png</t>
+  </si>
+  <si>
+    <t>روسيا - أوكرانيا - جورجيا - بولندا - طاجيكستان - البرازيل - أذربيجان - أرمينيا - قيرغيزستان - تركمانستان - بيلاروس - أوزبكستان - مولدوفا - كازاخستان</t>
+  </si>
+  <si>
+    <t>الكوبون صالح للمستخدمين الجدد فقط</t>
+  </si>
+  <si>
+    <t>EKTATR10DH</t>
+  </si>
+  <si>
+    <t>https://ektatraveling.com/</t>
+  </si>
+  <si>
+    <t>https://e.top4top.io/p_3416jetsb6.png</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>https://www.cartlow.com/</t>
+  </si>
+  <si>
+    <t>https://d.top4top.io/p_3416f8emf5.png</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام مرة واحدة فقط</t>
+  </si>
+  <si>
+    <t>خصم 30% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>NZZVGX</t>
+  </si>
+  <si>
+    <t>https://app.adjust.com/g0wxxkx</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_34169u0218.png</t>
+  </si>
+  <si>
+    <t>خصم 13% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>TAGVYA</t>
+  </si>
+  <si>
+    <t>https://brethsa.com/ar</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_3416ugzz34.png</t>
+  </si>
+  <si>
+    <t>خصم 25% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>YSXMRE</t>
+  </si>
+  <si>
+    <t>https://rakeeb.sa/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_3416d6j0k7.png</t>
+  </si>
+  <si>
+    <t>JVAKLI</t>
+  </si>
+  <si>
+    <t>https://nylwfr.com/ar</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3416ipn2s3.png</t>
+  </si>
+  <si>
+    <t>LA63</t>
+  </si>
+  <si>
+    <t>https://labayh.net/</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_34164fepc10.png</t>
+  </si>
+  <si>
+    <t>خصم 5% على جميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA247</t>
+  </si>
+  <si>
+    <t>https://fahis.sa/</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_3416npadv7.png</t>
+  </si>
+  <si>
+    <t>الخصم والعمولة لخدمة الفحص الشامل 360 فقط</t>
+  </si>
+  <si>
+    <t>LA206</t>
+  </si>
+  <si>
+    <t>https://mahjoz.io/</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_3416hqxh32.png</t>
+  </si>
+  <si>
+    <t>جميع الدول العربية</t>
+  </si>
+  <si>
+    <t>LA171</t>
+  </si>
+  <si>
+    <t>https://alhawanmarket.com/</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_34166v0871.png</t>
+  </si>
+  <si>
+    <t>السعودية ودول الخليج</t>
+  </si>
+  <si>
+    <t>خصم 20% على جميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA213</t>
+  </si>
+  <si>
+    <t>https://taseese.com/</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_3416t2fij10.png</t>
+  </si>
+  <si>
+    <t>https://bouvardiaa.com/</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3416n0fti2.png</t>
+  </si>
+  <si>
+    <t>LA102</t>
+  </si>
+  <si>
+    <t>https://opera-fashion.com/</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3416mr7cr5.png</t>
+  </si>
+  <si>
+    <t>السعودية و دول الخليج</t>
+  </si>
+  <si>
+    <t>DYLPFF</t>
+  </si>
+  <si>
+    <t>https://lusinabaya.com/</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_3416b6hui1.png</t>
+  </si>
+  <si>
+    <t>ADM03</t>
+  </si>
+  <si>
+    <t>https://openhagen.com/</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3416eaa9j4.png</t>
+  </si>
+  <si>
+    <t>LTLWNK</t>
+  </si>
+  <si>
+    <t>https://sablehcorner.com/</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3416zj7ss8.png</t>
+  </si>
+  <si>
+    <t>ULZYMN</t>
+  </si>
+  <si>
+    <t>https://breehan.com/</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_3416zvf1i3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kinguin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كينجوين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بروكسي سيل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proxy Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيت باك </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sitpack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تيكيتس </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tiqets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">إكتا </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EKTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كارتلو </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cartlow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آيستوريا </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iStoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بريث </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ركيب </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rakeeb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نيلوفر </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nylwfr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لبيه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Labayh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاحص </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fahis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">محجوز </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mahjoz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهاون </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alhawan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأسيس </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taseese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوفارديا عبايه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bouvardiaa Abaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوبرا للأزياء </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opera Fashion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبايات لوسين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lusin Abaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوبنهاجن </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Openhagen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سابليه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sableh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بريهان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breehan </t>
   </si>
 </sst>
 </file>
@@ -1224,20 +1627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="71.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="104.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="103.88671875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -2209,650 +2612,748 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>18</v>
+        <v>334</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="1" t="s">
+    <row r="65" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>60</v>
+        <v>358</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>31</v>
@@ -2860,252 +3361,252 @@
     </row>
     <row r="81" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>26</v>
+      <c r="A82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>149</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>180</v>
+        <v>67</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>31</v>
@@ -3113,157 +3614,157 @@
     </row>
     <row r="92" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>61</v>
@@ -3274,55 +3775,1089 @@
     </row>
     <row r="99" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="G117" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3333,11 +4868,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3351,4 +4889,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1629,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4862,45 +4859,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>